--- a/assets/format_data_siswa.xlsx
+++ b/assets/format_data_siswa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\absensi_sekolah\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C85715A-6658-4BEB-A6D1-3C4CDB947DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201DBBE0-5DFA-4573-8F34-C9B0CFB95C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="768" windowWidth="17280" windowHeight="9072" xr2:uid="{B37E9E71-DBD6-4565-B902-9011B4B20F74}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12360" xr2:uid="{B37E9E71-DBD6-4565-B902-9011B4B20F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,66 +35,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
-  <si>
-    <t>Laki-Laki</t>
-  </si>
-  <si>
-    <t>jenis_kelamin</t>
-  </si>
-  <si>
-    <t>tanggal_lahir</t>
-  </si>
-  <si>
-    <t>alamat</t>
-  </si>
-  <si>
-    <t>mjl</t>
-  </si>
-  <si>
-    <t>nisn</t>
-  </si>
-  <si>
-    <t>nama_siswa</t>
-  </si>
-  <si>
-    <t>id_kelas</t>
-  </si>
-  <si>
-    <t>nis</t>
-  </si>
-  <si>
-    <t>Siswa1</t>
-  </si>
-  <si>
-    <t>Siswa2</t>
-  </si>
-  <si>
-    <t>Siswa3</t>
-  </si>
-  <si>
-    <t>Siswa4</t>
-  </si>
-  <si>
-    <t>Siswa5</t>
-  </si>
-  <si>
-    <t>Siswa6</t>
-  </si>
-  <si>
-    <t>Siswa7</t>
-  </si>
-  <si>
-    <t>Siswa8</t>
-  </si>
-  <si>
-    <t>Siswa9</t>
-  </si>
-  <si>
-    <t>Siswa10</t>
-  </si>
-  <si>
-    <t>Perempuan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>NIS</t>
+  </si>
+  <si>
+    <t>Nama Siswa</t>
+  </si>
+  <si>
+    <t>NISN</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>ID_Kelas</t>
+  </si>
+  <si>
+    <t>Andi Pratama</t>
+  </si>
+  <si>
+    <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>Jl. Mawar No. 1, Cirebon</t>
   </si>
 </sst>
 </file>
@@ -144,16 +114,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -170,10 +210,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="C0C0C0"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="191919"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -465,270 +505,101 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>11111111111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1234567890</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>39457</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>26549414</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>36974</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2345678</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>26549415</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>36975</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2345679</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>26549416</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>36976</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2345680</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>26549417</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>36977</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>2345681</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>26549418</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>36978</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2345682</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>26549419</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2">
-        <v>36979</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2345683</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>26549420</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2">
-        <v>36980</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2345684</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>26549421</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2">
-        <v>36981</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2345685</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>26549422</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2">
-        <v>36982</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2345686</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>26549423</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2">
-        <v>36983</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2345687</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>

--- a/assets/format_data_siswa.xlsx
+++ b/assets/format_data_siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\absensi_sekolah\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201DBBE0-5DFA-4573-8F34-C9B0CFB95C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEF8E1C-8973-4980-B2CF-28520EA57262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12360" xr2:uid="{B37E9E71-DBD6-4565-B902-9011B4B20F74}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>NIS</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Jl. Mawar No. 1, Cirebon</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
@@ -126,74 +129,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -210,10 +145,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="C0C0C0"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="191919"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -502,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF389A-954C-45E9-BA8E-71FED8F92499}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,9 +451,10 @@
     <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,8 +476,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>11111111111</v>
       </c>
@@ -563,49 +502,52 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>6285456895136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="D13" s="2"/>
     </row>
